--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/9.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/9.xlsx
@@ -479,13 +479,13 @@
         <v>0.0004441388087016563</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.524657260939671</v>
+        <v>-2.45477935930878</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07572005810660117</v>
+        <v>-0.06022748781396896</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2060677633906868</v>
+        <v>0.1794773675590576</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.02462662507781689</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.729583770787252</v>
+        <v>-2.644781257571093</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1242739573697699</v>
+        <v>-0.1120095534061369</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2597843927033088</v>
+        <v>0.2318186315700435</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.05261517973486787</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.025668383190718</v>
+        <v>-2.924608234482291</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2261809339709244</v>
+        <v>-0.2036261110625668</v>
       </c>
       <c r="G4" t="n">
-        <v>0.271806428683851</v>
+        <v>0.2470294125811303</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.08207059317700797</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.24463909562475</v>
+        <v>-3.134969043324234</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.314109410149719</v>
+        <v>-0.2860983875256356</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2851863093889383</v>
+        <v>0.2536930720680377</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.116376764409479</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.2953560561346</v>
+        <v>-3.187773142580038</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3682071120140681</v>
+        <v>-0.3352114852076224</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3163510358893845</v>
+        <v>0.2846241908739384</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1579428319688856</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.076716044593159</v>
+        <v>-2.974644812581777</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4344567941390503</v>
+        <v>-0.3868212651250631</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3164430189191117</v>
+        <v>0.2819231019057574</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.21109586464691</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.719393365136755</v>
+        <v>-2.625112219714417</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5419732755054759</v>
+        <v>-0.4862023585289455</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2966695876239352</v>
+        <v>0.2693477076987607</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2824233324582509</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.29108314750037</v>
+        <v>-2.196353037290077</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5435632678764756</v>
+        <v>-0.4873849974825815</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2951803385712083</v>
+        <v>0.2689053131272154</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3803004516480483</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.911614458601063</v>
+        <v>-1.814471618920543</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.622969443348636</v>
+        <v>-0.5536726408579273</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3096362747192953</v>
+        <v>0.2850169438103929</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.5152519293610314</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.404476244536517</v>
+        <v>-1.308406540202816</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7617732952551443</v>
+        <v>-0.6892687671087091</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3199661149624744</v>
+        <v>0.3001080008780252</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.6933267718354074</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.859244645756118</v>
+        <v>-0.7571653834802363</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9242226259939188</v>
+        <v>-0.8545695717690284</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3663854239167347</v>
+        <v>0.3464849684376491</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.9091006632628543</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3585941553835252</v>
+        <v>-0.2471691252777369</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.234135353866381</v>
+        <v>-1.15127470461113</v>
       </c>
       <c r="G13" t="n">
-        <v>0.397563290849999</v>
+        <v>0.3820590401726395</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.147959784992627</v>
       </c>
       <c r="E14" t="n">
-        <v>0.244445127460222</v>
+        <v>0.3496883139491028</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.667046913061265</v>
+        <v>-1.571786075369927</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4971327304576086</v>
+        <v>0.4794661485576134</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.389688196892948</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8630923243957831</v>
+        <v>0.9669893465448461</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.069277021673793</v>
+        <v>-1.965763992172639</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5784501088807686</v>
+        <v>0.5676472130561352</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.622718485636233</v>
       </c>
       <c r="E16" t="n">
-        <v>1.347074905762562</v>
+        <v>1.459990644969168</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.463157115254415</v>
+        <v>-2.349940606141081</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6964351350590097</v>
+        <v>0.6887684225336481</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.856197412609125</v>
       </c>
       <c r="E17" t="n">
-        <v>1.893289116908143</v>
+        <v>1.996898509583297</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.820751363655728</v>
+        <v>-2.705305361107577</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8100400169645247</v>
+        <v>0.8046480593647988</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.101127958105227</v>
       </c>
       <c r="E18" t="n">
-        <v>2.302829686311851</v>
+        <v>2.405592251094278</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.156682148508183</v>
+        <v>-3.047048597409939</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9415728293783074</v>
+        <v>0.9397375489280353</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.35394251530574</v>
       </c>
       <c r="E19" t="n">
-        <v>2.752255849463003</v>
+        <v>2.848795689281977</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.427726206128519</v>
+        <v>-3.321206207584139</v>
       </c>
       <c r="G19" t="n">
-        <v>1.115333152677352</v>
+        <v>1.116155159752533</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.604881894195343</v>
       </c>
       <c r="E20" t="n">
-        <v>3.066621724012737</v>
+        <v>3.159012107157348</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.696038513770765</v>
+        <v>-3.591560392481521</v>
       </c>
       <c r="G20" t="n">
-        <v>1.254484496029496</v>
+        <v>1.257635279809677</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.83853148557975</v>
       </c>
       <c r="E21" t="n">
-        <v>3.403596443250192</v>
+        <v>3.496131371155804</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.917962903492706</v>
+        <v>-3.816902024760233</v>
       </c>
       <c r="G21" t="n">
-        <v>1.374331083523646</v>
+        <v>1.375940056519827</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.040561873239469</v>
       </c>
       <c r="E22" t="n">
-        <v>3.721294147543379</v>
+        <v>3.810200855943083</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.082394979538934</v>
+        <v>-3.988862838787232</v>
       </c>
       <c r="G22" t="n">
-        <v>1.44079247262181</v>
+        <v>1.449707526264898</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.201770980214245</v>
       </c>
       <c r="E23" t="n">
-        <v>3.925626417817961</v>
+        <v>4.002610373507304</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.188681370388769</v>
+        <v>-4.110803135243745</v>
       </c>
       <c r="G23" t="n">
-        <v>1.527116355948696</v>
+        <v>1.532870405474967</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.313304567813771</v>
       </c>
       <c r="E24" t="n">
-        <v>4.085234494971827</v>
+        <v>4.163158721631715</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.247500867779118</v>
+        <v>-4.178031049589636</v>
       </c>
       <c r="G24" t="n">
-        <v>1.5775916784995</v>
+        <v>1.584513766498499</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.36886437278539</v>
       </c>
       <c r="E25" t="n">
-        <v>4.1855324985768</v>
+        <v>4.256546317622417</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.275873982329746</v>
+        <v>-4.217120187103489</v>
       </c>
       <c r="G25" t="n">
-        <v>1.591796486375951</v>
+        <v>1.602743926961584</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.371887785929885</v>
       </c>
       <c r="E26" t="n">
-        <v>4.213718726971792</v>
+        <v>4.284247810051228</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.18351791031527</v>
+        <v>-4.144187134842372</v>
       </c>
       <c r="G26" t="n">
-        <v>1.542841073887782</v>
+        <v>1.562408638402141</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.326946076118464</v>
       </c>
       <c r="E27" t="n">
-        <v>4.168487897163532</v>
+        <v>4.246707053537784</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.109982588216655</v>
+        <v>-4.083990812102297</v>
       </c>
       <c r="G27" t="n">
-        <v>1.51802901663088</v>
+        <v>1.535989068197148</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.241721080328996</v>
       </c>
       <c r="E28" t="n">
-        <v>4.121537130704181</v>
+        <v>4.195777656030707</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.939923486828063</v>
+        <v>-3.926563316772203</v>
       </c>
       <c r="G28" t="n">
-        <v>1.423987319095451</v>
+        <v>1.454632268475533</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.125959347841403</v>
       </c>
       <c r="E29" t="n">
-        <v>3.966225975081859</v>
+        <v>4.040989197624929</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.768540851845064</v>
+        <v>-3.765119959168065</v>
       </c>
       <c r="G29" t="n">
-        <v>1.320322444592842</v>
+        <v>1.355292056418197</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.986071193265061</v>
       </c>
       <c r="E30" t="n">
-        <v>3.864483983914977</v>
+        <v>3.937873301204503</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.604115346015245</v>
+        <v>-3.609229164453652</v>
       </c>
       <c r="G30" t="n">
-        <v>1.227870739428413</v>
+        <v>1.269543432039129</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.829529992261421</v>
       </c>
       <c r="E31" t="n">
-        <v>3.709031203627837</v>
+        <v>3.779383620888273</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.45357270745783</v>
+        <v>-3.463641199092737</v>
       </c>
       <c r="G31" t="n">
-        <v>1.128543667803894</v>
+        <v>1.175447712724336</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.663207459847606</v>
       </c>
       <c r="E32" t="n">
-        <v>3.55083499297788</v>
+        <v>3.618801691657771</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.257825519957792</v>
+        <v>-3.282994558972922</v>
       </c>
       <c r="G32" t="n">
-        <v>1.011944227263925</v>
+        <v>1.059829424501457</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.489204119661143</v>
       </c>
       <c r="E33" t="n">
-        <v>3.369989056293655</v>
+        <v>3.439897618934455</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.113446474416149</v>
+        <v>-3.144277579927823</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9603811688853934</v>
+        <v>1.004471701134654</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.312789034877938</v>
       </c>
       <c r="E34" t="n">
-        <v>3.180692361259252</v>
+        <v>3.240087117597418</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.100116235346153</v>
+        <v>-3.119864115799738</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8644487090722373</v>
+        <v>0.9099292071040432</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.136759590224298</v>
       </c>
       <c r="E35" t="n">
-        <v>2.88644594940224</v>
+        <v>2.937804601048044</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.98259404441273</v>
+        <v>-3.004544407411451</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8170730686184319</v>
+        <v>0.8592523979166933</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.95967781504779</v>
       </c>
       <c r="E36" t="n">
-        <v>2.5954320840185</v>
+        <v>2.655330556948029</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.925918627643881</v>
+        <v>-2.94721415907383</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7533332091617216</v>
+        <v>0.7909279874545297</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.785736598806746</v>
       </c>
       <c r="E37" t="n">
-        <v>2.329995341091298</v>
+        <v>2.394909079213099</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.861888948641126</v>
+        <v>-2.879726356167757</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7086922387821882</v>
+        <v>0.7368959877542716</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.615970500553066</v>
       </c>
       <c r="E38" t="n">
-        <v>2.020993683227563</v>
+        <v>2.088074132716272</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.787633092809646</v>
+        <v>-2.803909708927096</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6318104864592089</v>
+        <v>0.6605588333692012</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.449759458892046</v>
       </c>
       <c r="E39" t="n">
-        <v>1.73442566428064</v>
+        <v>1.799408024662714</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.661844109585497</v>
+        <v>-2.68405290109631</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6094702906202148</v>
+        <v>0.6321944791071178</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.290423933981364</v>
       </c>
       <c r="E40" t="n">
-        <v>1.499771115254067</v>
+        <v>1.55747513590296</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.54494097904262</v>
+        <v>-2.568473304147841</v>
       </c>
       <c r="G40" t="n">
-        <v>0.535267726544053</v>
+        <v>0.5595395660073191</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.1373456541409</v>
       </c>
       <c r="E41" t="n">
-        <v>1.250260576902497</v>
+        <v>1.314934867137389</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.430184849217424</v>
+        <v>-2.455045818085371</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4734040288841605</v>
+        <v>0.4951864863524273</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9904305457641741</v>
       </c>
       <c r="E42" t="n">
-        <v>1.036703722789555</v>
+        <v>1.097139493416538</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.310466745955274</v>
+        <v>-2.33840987634313</v>
       </c>
       <c r="G42" t="n">
-        <v>0.405815482659815</v>
+        <v>0.4269642792566275</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8523804659354538</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8337730986822456</v>
+        <v>0.8920421579423208</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.207602707830529</v>
+        <v>-2.236811699913203</v>
       </c>
       <c r="G43" t="n">
-        <v>0.351698800170284</v>
+        <v>0.3688134838919158</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7235456204180661</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6713558890014709</v>
+        <v>0.7292117546518191</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.145192952184636</v>
+        <v>-2.172982777522947</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2610152132439448</v>
+        <v>0.2801418432348488</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6048244612767303</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4930168548893371</v>
+        <v>0.5489527573001401</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.03735380019012</v>
+        <v>-2.06930330253943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2308973412246801</v>
+        <v>0.246092061706767</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4981026796377544</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3219561605103829</v>
+        <v>0.3792075662510949</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.965160992311094</v>
+        <v>-1.996955729562767</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2036937251948693</v>
+        <v>0.2213734475276827</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4028300706008176</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1479461689877933</v>
+        <v>0.2026673113869605</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.903899564488701</v>
+        <v>-1.939793386755601</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1364044888291601</v>
+        <v>0.1513670616647924</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3193386804255355</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02574452392300796</v>
+        <v>0.07816317048281206</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.854645572165942</v>
+        <v>-1.884978801278615</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1223369254732547</v>
+        <v>0.1378353359582506</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2486108537711444</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1084630965933196</v>
+        <v>-0.05432305333433418</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.779910090536598</v>
+        <v>-1.813964982232998</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07077678719090495</v>
+        <v>0.08727241052199143</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1892410093339956</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2117118573900192</v>
+        <v>-0.1608540022393965</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.758162674222513</v>
+        <v>-1.788322157612368</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03405219756027845</v>
+        <v>0.05064418406536491</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.140027539043521</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3228112967715348</v>
+        <v>-0.2782112077385468</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.704971662222618</v>
+        <v>-1.735739255642337</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03087367286637022</v>
+        <v>0.04707290643500223</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.09914058908306489</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3783661266306108</v>
+        <v>-0.3337222361548955</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.70057253732471</v>
+        <v>-1.727174613541067</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.03157988422224938</v>
+        <v>-0.01630340104707166</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.06494808086749286</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4804030475118561</v>
+        <v>-0.4350072322693229</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.69393661875153</v>
+        <v>-1.718820218364887</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03350422760606704</v>
+        <v>-0.0222852180755246</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.03721763918580098</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5183350969136641</v>
+        <v>-0.4685313964846775</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.68108235535917</v>
+        <v>-1.701628152094437</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.06924912496769381</v>
+        <v>-0.05652188575924268</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.01593940134160977</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6432582716199033</v>
+        <v>-0.5893094946608269</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.663253708121084</v>
+        <v>-1.680416573429716</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.09236168624677851</v>
+        <v>-0.08299839783978102</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.0003883472471054634</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7256414851494266</v>
+        <v>-0.6719409163658047</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.628088449851548</v>
+        <v>-1.640256490641181</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1134433206314092</v>
+        <v>-0.1035690153925937</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.008972678918925194</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8550148864367555</v>
+        <v>-0.7999958942270431</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.666276007669265</v>
+        <v>-1.678668895864898</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1137951922213182</v>
+        <v>-0.1050743249743206</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.0120878449606856</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9271514824642816</v>
+        <v>-0.8720930689561146</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.640230209775545</v>
+        <v>-1.647877941675725</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1551641948291253</v>
+        <v>-0.1481442836080362</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.009264960847666377</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.04370274141725</v>
+        <v>-0.9882457347802652</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.650857899829269</v>
+        <v>-1.660764326126085</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1780825697121191</v>
+        <v>-0.170456738533303</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.0009179490997118584</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.08363067655933</v>
+        <v>-1.025260873980983</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.648380198218997</v>
+        <v>-1.66088551011763</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1901119059331159</v>
+        <v>-0.1840614666443902</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.0122151473624034</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.167085565387581</v>
+        <v>-1.109448706950869</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.693698630912712</v>
+        <v>-1.701556609737983</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2492745146248273</v>
+        <v>-0.2405229863679205</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.02918790803598018</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.219847323248749</v>
+        <v>-1.164439958246854</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.697594039219257</v>
+        <v>-1.705580502276527</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2951725864106332</v>
+        <v>-0.2870240580152717</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.04872359698230316</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.287771680534003</v>
+        <v>-1.237217515386289</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.744720011449517</v>
+        <v>-1.755776955641968</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3138509816376281</v>
+        <v>-0.3054440247301758</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.06921169692730618</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.356388100614348</v>
+        <v>-1.310619973108633</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.776435176080235</v>
+        <v>-1.785907968094051</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3610820773304336</v>
+        <v>-0.3520633602728906</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.08890871282242936</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.374232808381434</v>
+        <v>-1.333698953281627</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.863100710660394</v>
+        <v>-1.868307242152574</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3576903856152527</v>
+        <v>-0.3504135059301637</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1066246234884653</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.400380809641518</v>
+        <v>-1.359319877180893</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.976606309295727</v>
+        <v>-1.972315227956546</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3878345385001537</v>
+        <v>-0.3808336079042465</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1214620385547323</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.442371792736052</v>
+        <v>-1.4010100903687</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.049722597592253</v>
+        <v>-2.045465097359163</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3599198790500703</v>
+        <v>-0.3546286647686172</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1332161781566177</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.471245703781863</v>
+        <v>-1.432168976676782</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.16385382683454</v>
+        <v>-2.152239144271362</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.426993028298325</v>
+        <v>-0.4174034324372367</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.142322705310919</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.466407104408591</v>
+        <v>-1.432163136484419</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.312924736916318</v>
+        <v>-2.292911857734233</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4472584958001378</v>
+        <v>-0.4333588379746869</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1495944109778612</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.490486217523858</v>
+        <v>-1.449375643428141</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.438956088123557</v>
+        <v>-2.411142902015792</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4610282093454977</v>
+        <v>-0.4516561606499548</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1560336371173967</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.52954980419612</v>
+        <v>-1.485168722376768</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.606779125860922</v>
+        <v>-2.564781572549978</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5220275585355723</v>
+        <v>-0.5086710385999395</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1627361202744345</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.537029630565845</v>
+        <v>-1.488100498943313</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.704489924248804</v>
+        <v>-2.65779028606109</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5412315710752943</v>
+        <v>-0.5262806786243893</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1702918626972084</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.521639263639577</v>
+        <v>-1.471380028206226</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.828180818366317</v>
+        <v>-2.771475470611604</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5510854356408371</v>
+        <v>-0.5298446560142974</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1785872020972596</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.576880183159107</v>
+        <v>-1.517843138603214</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.965239912804189</v>
+        <v>-2.896629332916207</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.562538052865925</v>
+        <v>-0.5373142620473863</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.1877207523523144</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.453571821641413</v>
+        <v>-1.395809399068883</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.028108123550627</v>
+        <v>-2.952594436288829</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5976799503660064</v>
+        <v>-0.5710764141015591</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1974070701769801</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.349111220929259</v>
+        <v>-1.287666557071458</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.088761441343156</v>
+        <v>-3.007154973397996</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5889707635037361</v>
+        <v>-0.5624051884896523</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.2071014488609832</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.238410374676562</v>
+        <v>-1.175599105805669</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.165006612698499</v>
+        <v>-3.079637600823067</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5631162319099249</v>
+        <v>-0.530506057799479</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.216866505540129</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.102408355056507</v>
+        <v>-1.036742692167889</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.226159266938119</v>
+        <v>-3.131170728215735</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5736402585491948</v>
+        <v>-0.5398620459660219</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2266751268205104</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9020970572242883</v>
+        <v>-0.8342457023435793</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.292599485338965</v>
+        <v>-3.191427642951583</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5729219148884677</v>
+        <v>-0.5386589663391133</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2368642804550219</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6897593432672544</v>
+        <v>-0.6212495066975456</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.331611970328045</v>
+        <v>-3.220221981376439</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5356045457329323</v>
+        <v>-0.4990420214403966</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2485180974320954</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4375068346009586</v>
+        <v>-0.374876611693339</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.378300658155078</v>
+        <v>-3.258935886530928</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4975352518105788</v>
+        <v>-0.462174347096861</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2632293119363263</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1686097776983035</v>
+        <v>-0.1030477782241393</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.321809207445684</v>
+        <v>-3.200791661382626</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4599755146719525</v>
+        <v>-0.4274879846011431</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2821017022844871</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1185802217353467</v>
+        <v>0.1730224949491502</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.316352277705913</v>
+        <v>-3.187139481708584</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4408664052581395</v>
+        <v>-0.4094593107746025</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3056463372614267</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4443446917308047</v>
+        <v>0.4944637625474276</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.267479357934881</v>
+        <v>-3.133804654971735</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3937871545667885</v>
+        <v>-0.3620223483009788</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3331817057551162</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7250330970156383</v>
+        <v>0.7661641117846273</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.181826366705767</v>
+        <v>-3.038218226556124</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3513187357465272</v>
+        <v>-0.32028103342999</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3632586899222631</v>
       </c>
       <c r="E86" t="n">
-        <v>0.984518683924296</v>
+        <v>1.021776191108104</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.095839024463836</v>
+        <v>-2.945923476561467</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2744778647700932</v>
+        <v>-0.2472625683555551</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3941053975212336</v>
       </c>
       <c r="E87" t="n">
-        <v>1.175582037148699</v>
+        <v>1.208878433861872</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.977826987395913</v>
+        <v>-2.820833856372864</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2397272601583753</v>
+        <v>-0.2129528982672916</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.4225730254451103</v>
       </c>
       <c r="E88" t="n">
-        <v>1.342043580041291</v>
+        <v>1.370958372433647</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.742067911988567</v>
+        <v>-2.592028259998471</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2375459483105577</v>
+        <v>-0.2082384029817474</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.4464634343228081</v>
       </c>
       <c r="E89" t="n">
-        <v>1.483164528268071</v>
+        <v>1.513114494756881</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.506762911537494</v>
+        <v>-2.361336281490624</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1651684443480317</v>
+        <v>-0.1417609533545834</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.4622936867090668</v>
       </c>
       <c r="E90" t="n">
-        <v>1.605605621219766</v>
+        <v>1.627380778447578</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.224861936313161</v>
+        <v>-2.086063194574971</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1606612758913965</v>
+        <v>-0.1406440165650383</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.4666174258935405</v>
       </c>
       <c r="E91" t="n">
-        <v>1.650300613378663</v>
+        <v>1.672207174934657</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.936551349969738</v>
+        <v>-1.80582229403</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0919397323485059</v>
+        <v>-0.07983593367487278</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.4561056838495394</v>
       </c>
       <c r="E92" t="n">
-        <v>1.61811385321458</v>
+        <v>1.645600718574028</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.576777979792743</v>
+        <v>-1.463932322894501</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1046100296814116</v>
+        <v>-0.09090893839632436</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.4280250527222815</v>
       </c>
       <c r="E93" t="n">
-        <v>1.648574836535209</v>
+        <v>1.673769426391929</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.23803806241338</v>
+        <v>-1.138728511365952</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1328298391824949</v>
+        <v>-0.1193681957843167</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.3810766707128832</v>
       </c>
       <c r="E94" t="n">
-        <v>1.601111593195949</v>
+        <v>1.635422723332303</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9879435048254471</v>
+        <v>-0.9048784488374694</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1368785525385847</v>
+        <v>-0.124897397904588</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.3178498510347164</v>
       </c>
       <c r="E95" t="n">
-        <v>1.594713662461587</v>
+        <v>1.627842153644305</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6887037284975275</v>
+        <v>-0.6263567549195442</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.194683316505751</v>
+        <v>-0.1810712881542092</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.2435031250000645</v>
       </c>
       <c r="E96" t="n">
-        <v>1.498735941157612</v>
+        <v>1.539682989867147</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4081438074446937</v>
+        <v>-0.3647555583271599</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.220367022472926</v>
+        <v>-0.2085231123594746</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1666971533925675</v>
       </c>
       <c r="E97" t="n">
-        <v>1.379711360738644</v>
+        <v>1.421360692579906</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2020550993167491</v>
+        <v>-0.1797528647281187</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3253912017481705</v>
+        <v>-0.3047986834739942</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.09427039544403587</v>
       </c>
       <c r="E98" t="n">
-        <v>1.308044900196391</v>
+        <v>1.342699141634109</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.03962474920315631</v>
+        <v>-0.02778521923397767</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.32707755729317</v>
+        <v>-0.3039182744751763</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.03306905757701917</v>
       </c>
       <c r="E99" t="n">
-        <v>1.159353602618249</v>
+        <v>1.198760300591875</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07753826989990314</v>
+        <v>0.07804636663553936</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3399274405412575</v>
+        <v>-0.3163914653158093</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.01653156265044199</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9966765043772927</v>
+        <v>1.043746994780098</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1717741538314233</v>
+        <v>0.1618020253705169</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3788348020677925</v>
+        <v>-0.3518253724340725</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.05415623768086077</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8349309168183361</v>
+        <v>0.8938146563246839</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2214493700284099</v>
+        <v>0.2115298032987762</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3423058588813477</v>
+        <v>-0.3149971193889914</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.08723492590063062</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7313886863553639</v>
+        <v>0.7881845570917123</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2402562494874049</v>
+        <v>0.2291073222652261</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3578495308571618</v>
+        <v>-0.3329133695125321</v>
       </c>
     </row>
   </sheetData>
